--- a/biology/Zoologie/Don't_(film)/Don't_(film).xlsx
+++ b/biology/Zoologie/Don't_(film)/Don't_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Don%27t_(film)</t>
+          <t>Don't_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Don't  est un court-métrage documentaire américain réalisé et produit par Robin Lehman (en) et sorti en 1974.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Don%27t_(film)</t>
+          <t>Don't_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film décrit le cycle de la vue du papillon monarque.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Don%27t_(film)</t>
+          <t>Don't_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Robin Lehman (en)
 Production : Robin Lehman
-Musique : Frédéric Chopin[1]
+Musique : Frédéric Chopin
 Durée : 19 minutes
 Date de sortie : 1974</t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Don%27t_(film)</t>
+          <t>Don't_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1975 : Oscar du meilleur court métrage documentaire[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1975 : Oscar du meilleur court métrage documentaire</t>
         </is>
       </c>
     </row>
